--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Ntrk2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,55 +528,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.99196230116137</v>
+        <v>2.020961333333334</v>
       </c>
       <c r="H2">
-        <v>1.99196230116137</v>
+        <v>6.062884</v>
       </c>
       <c r="I2">
-        <v>0.4262922316700839</v>
+        <v>0.3447258214530571</v>
       </c>
       <c r="J2">
-        <v>0.4262922316700839</v>
+        <v>0.3447258214530571</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>14.1632457489181</v>
+        <v>0.1293823333333333</v>
       </c>
       <c r="N2">
-        <v>14.1632457489181</v>
+        <v>0.388147</v>
       </c>
       <c r="O2">
-        <v>0.8947506854194464</v>
+        <v>0.006916257066299044</v>
       </c>
       <c r="P2">
-        <v>0.8947506854194464</v>
+        <v>0.006916257066299042</v>
       </c>
       <c r="Q2">
-        <v>28.21265159392889</v>
+        <v>0.2614766928831112</v>
       </c>
       <c r="R2">
-        <v>28.21265159392889</v>
+        <v>2.353290235948</v>
       </c>
       <c r="S2">
-        <v>0.381425266475793</v>
+        <v>0.002384212398560449</v>
       </c>
       <c r="T2">
-        <v>0.381425266475793</v>
+        <v>0.002384212398560448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,60 +590,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.99196230116137</v>
+        <v>2.020961333333334</v>
       </c>
       <c r="H3">
-        <v>1.99196230116137</v>
+        <v>6.062884</v>
       </c>
       <c r="I3">
-        <v>0.4262922316700839</v>
+        <v>0.3447258214530571</v>
       </c>
       <c r="J3">
-        <v>0.4262922316700839</v>
+        <v>0.3447258214530571</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.66601929632584</v>
+        <v>14.52590566666666</v>
       </c>
       <c r="N3">
-        <v>1.66601929632584</v>
+        <v>43.57771699999999</v>
       </c>
       <c r="O3">
-        <v>0.1052493145805536</v>
+        <v>0.7764962582074056</v>
       </c>
       <c r="P3">
-        <v>0.1052493145805536</v>
+        <v>0.7764962582074055</v>
       </c>
       <c r="Q3">
-        <v>3.318647631288467</v>
+        <v>29.35629368398089</v>
       </c>
       <c r="R3">
-        <v>3.318647631288467</v>
+        <v>264.206643155828</v>
       </c>
       <c r="S3">
-        <v>0.04486696519429088</v>
+        <v>0.267678310465773</v>
       </c>
       <c r="T3">
-        <v>0.04486696519429088</v>
+        <v>0.267678310465773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,60 +652,60 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.6808000744453</v>
+        <v>2.020961333333334</v>
       </c>
       <c r="H4">
-        <v>2.6808000744453</v>
+        <v>6.062884</v>
       </c>
       <c r="I4">
-        <v>0.5737077683299162</v>
+        <v>0.3447258214530571</v>
       </c>
       <c r="J4">
-        <v>0.5737077683299162</v>
+        <v>0.3447258214530571</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>14.1632457489181</v>
+        <v>0.01202633333333333</v>
       </c>
       <c r="N4">
-        <v>14.1632457489181</v>
+        <v>0.036079</v>
       </c>
       <c r="O4">
-        <v>0.8947506854194464</v>
+        <v>0.0006428792150783161</v>
       </c>
       <c r="P4">
-        <v>0.8947506854194464</v>
+        <v>0.000642879215078316</v>
       </c>
       <c r="Q4">
-        <v>37.96883025808673</v>
+        <v>0.02430475464844445</v>
       </c>
       <c r="R4">
-        <v>37.96883025808673</v>
+        <v>0.218742791836</v>
       </c>
       <c r="S4">
-        <v>0.5133254189436535</v>
+        <v>0.0002216170655129691</v>
       </c>
       <c r="T4">
-        <v>0.5133254189436535</v>
+        <v>0.000221617065512969</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,52 +717,300 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.6808000744453</v>
+        <v>2.020961333333334</v>
       </c>
       <c r="H5">
-        <v>2.6808000744453</v>
+        <v>6.062884</v>
       </c>
       <c r="I5">
-        <v>0.5737077683299162</v>
+        <v>0.3447258214530571</v>
       </c>
       <c r="J5">
-        <v>0.5737077683299162</v>
+        <v>0.3447258214530571</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.66601929632584</v>
+        <v>4.039673</v>
       </c>
       <c r="N5">
-        <v>1.66601929632584</v>
+        <v>12.119019</v>
       </c>
       <c r="O5">
-        <v>0.1052493145805536</v>
+        <v>0.215944605511217</v>
       </c>
       <c r="P5">
-        <v>0.1052493145805536</v>
+        <v>0.215944605511217</v>
       </c>
       <c r="Q5">
-        <v>4.466264653617618</v>
+        <v>8.164022932310667</v>
       </c>
       <c r="R5">
-        <v>4.466264653617618</v>
+        <v>73.47620639079601</v>
       </c>
       <c r="S5">
-        <v>0.0603823493862627</v>
+        <v>0.07444168152321065</v>
       </c>
       <c r="T5">
-        <v>0.0603823493862627</v>
+        <v>0.07444168152321064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.841556666666667</v>
+      </c>
+      <c r="H6">
+        <v>11.52467</v>
+      </c>
+      <c r="I6">
+        <v>0.6552741785469429</v>
+      </c>
+      <c r="J6">
+        <v>0.6552741785469429</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.1293823333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.388147</v>
+      </c>
+      <c r="O6">
+        <v>0.006916257066299044</v>
+      </c>
+      <c r="P6">
+        <v>0.006916257066299042</v>
+      </c>
+      <c r="Q6">
+        <v>0.4970295651655556</v>
+      </c>
+      <c r="R6">
+        <v>4.473266086490001</v>
+      </c>
+      <c r="S6">
+        <v>0.004532044667738595</v>
+      </c>
+      <c r="T6">
+        <v>0.004532044667738594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.841556666666667</v>
+      </c>
+      <c r="H7">
+        <v>11.52467</v>
+      </c>
+      <c r="I7">
+        <v>0.6552741785469429</v>
+      </c>
+      <c r="J7">
+        <v>0.6552741785469429</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>14.52590566666666</v>
+      </c>
+      <c r="N7">
+        <v>43.57771699999999</v>
+      </c>
+      <c r="O7">
+        <v>0.7764962582074056</v>
+      </c>
+      <c r="P7">
+        <v>0.7764962582074055</v>
+      </c>
+      <c r="Q7">
+        <v>55.80208975315444</v>
+      </c>
+      <c r="R7">
+        <v>502.2188077783899</v>
+      </c>
+      <c r="S7">
+        <v>0.5088179477416326</v>
+      </c>
+      <c r="T7">
+        <v>0.5088179477416326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.841556666666667</v>
+      </c>
+      <c r="H8">
+        <v>11.52467</v>
+      </c>
+      <c r="I8">
+        <v>0.6552741785469429</v>
+      </c>
+      <c r="J8">
+        <v>0.6552741785469429</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.01202633333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.036079</v>
+      </c>
+      <c r="O8">
+        <v>0.0006428792150783161</v>
+      </c>
+      <c r="P8">
+        <v>0.000642879215078316</v>
+      </c>
+      <c r="Q8">
+        <v>0.04619984099222223</v>
+      </c>
+      <c r="R8">
+        <v>0.41579856893</v>
+      </c>
+      <c r="S8">
+        <v>0.000421262149565347</v>
+      </c>
+      <c r="T8">
+        <v>0.000421262149565347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.841556666666667</v>
+      </c>
+      <c r="H9">
+        <v>11.52467</v>
+      </c>
+      <c r="I9">
+        <v>0.6552741785469429</v>
+      </c>
+      <c r="J9">
+        <v>0.6552741785469429</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.039673</v>
+      </c>
+      <c r="N9">
+        <v>12.119019</v>
+      </c>
+      <c r="O9">
+        <v>0.215944605511217</v>
+      </c>
+      <c r="P9">
+        <v>0.215944605511217</v>
+      </c>
+      <c r="Q9">
+        <v>15.51863274430333</v>
+      </c>
+      <c r="R9">
+        <v>139.66769469873</v>
+      </c>
+      <c r="S9">
+        <v>0.1415029239880064</v>
+      </c>
+      <c r="T9">
+        <v>0.1415029239880064</v>
       </c>
     </row>
   </sheetData>
